--- a/matching and patching/4_stenosis/5_Compare/LP_G_C comparsion.xlsx
+++ b/matching and patching/4_stenosis/5_Compare/LP_G_C comparsion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\PhD\matching and patching\4_stenosis\5_Compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25421F7-2ED5-4549-9820-0E2A4BCDFC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB067AFE-9B8F-4109-9174-51B80EDEFCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="0" windowWidth="31455" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31455" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2952,7 +2952,7 @@
   <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
